--- a/static/fields/devicecovid19serology_reference.xlsx
+++ b/static/fields/devicecovid19serology_reference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack.finch/WebstormProjects/open.fda.gov/static/fields/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A397E22F-AE53-2646-AA44-A321C88E9EA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2E4D85-94BE-5941-B5D1-D2290926F1EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1080" windowWidth="26540" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
   <si>
     <t>Field Name</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>Agreement between all antibody results and antibody_truth. Any positive makes the result positive. All results must be negative for the overall result to be considered negative.</t>
+  </si>
+  <si>
+    <t>evaluation_id</t>
+  </si>
+  <si>
+    <t>The unique identifier for each evaluation.</t>
   </si>
 </sst>
 </file>
@@ -1079,18 +1085,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="149.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.83203125" style="5" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -1130,7 +1136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1141,278 +1147,289 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
+    <row r="26" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="C30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1420,7 +1437,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="63" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="73" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/static/fields/devicecovid19serology_reference.xlsx
+++ b/static/fields/devicecovid19serology_reference.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack.finch/WebstormProjects/open.fda.gov/static/fields/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2E4D85-94BE-5941-B5D1-D2290926F1EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BB762D-08DC-3345-8607-BC91DF276A30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1080" windowWidth="26540" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>Field Name</t>
   </si>
@@ -220,6 +220,18 @@
   </si>
   <si>
     <t>The unique identifier for each evaluation.</t>
+  </si>
+  <si>
+    <t>igm_iga_agree</t>
+  </si>
+  <si>
+    <t>Agreement between igm_iga_result and antibody_truth.</t>
+  </si>
+  <si>
+    <t>igm_iga_result</t>
+  </si>
+  <si>
+    <t>The test result for qualitative detection of (IgM / IgA) combined antibodies.</t>
   </si>
 </sst>
 </file>
@@ -1085,10 +1097,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1290,146 +1302,168 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B26" s="4" t="s">
+    <row r="27" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="C30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B30" s="4" t="s">
+    <row r="31" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="C32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>62</v>
       </c>
     </row>
